--- a/project/uploads/93/split_output/11压板槽.xlsx
+++ b/project/uploads/93/split_output/11压板槽.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E2B799F-5AB8-410B-95FC-C66A9E8968DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76F7C879-FBE2-48F6-852B-53F94EAFE05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D62FA6D7-73CA-4063-867F-A8AC4DF83C0A}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8170" xr2:uid="{2A8960C5-F1E8-4463-8AD6-E5CF8F0A636A}"/>
   </bookViews>
   <sheets>
     <sheet name="11压板槽" sheetId="1" r:id="rId1"/>
@@ -1866,7 +1866,7 @@
         <xdr:cNvPr id="2" name="Picture 1190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE4448A-94CD-4E30-BCD0-D5C6C1E07557}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D51E381-B0E1-4EEF-BDFD-120265C46812}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,8 +1883,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1441450" y="13020675"/>
-          <a:ext cx="6008370" cy="2261235"/>
+          <a:off x="1440180" y="13340715"/>
+          <a:ext cx="6008370" cy="2322195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1915,7 +1915,7 @@
         <xdr:cNvPr id="3" name="组合 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64555BD2-6FD9-4818-93C3-4BE294DFEBDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56260C23-6F03-43A4-B486-AF3C5951DACF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,8 +1923,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1315113" y="6028110"/>
-          <a:ext cx="6240780" cy="2413967"/>
+          <a:off x="1314008" y="6179406"/>
+          <a:ext cx="6240780" cy="2480227"/>
           <a:chOff x="1340810" y="8933037"/>
           <a:chExt cx="6244672" cy="2446146"/>
         </a:xfrm>
@@ -1934,7 +1934,7 @@
           <xdr:cNvPr id="4" name="Picture 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903FAA1A-9711-8243-B979-714209BD1DB5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9674E7-F28F-7CCD-5425-1D2AE98A31C3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1967,7 +1967,7 @@
           <xdr:cNvPr id="5" name="Picture 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB16337-8C64-EF92-3FE3-FB7474BB4705}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD976B72-BA4C-30B3-0F13-AA10E270F7BB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2000,7 +2000,7 @@
           <xdr:cNvPr id="6" name="文本框 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB92024-A6EB-9B09-5D3C-2E6559D99718}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C63352-9F76-DE52-B633-806303AB6A95}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2148,7 +2148,7 @@
           <xdr:cNvPr id="7" name="文本框 48">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBB178E-504A-7B73-5A58-4C90EB52D4F8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CABC0EF6-B4D9-DABA-1B24-EE56FF3211A3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2296,7 +2296,7 @@
           <xdr:cNvPr id="8" name="文本框 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56858B69-46B0-1A6F-0348-A107EFA65E01}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4068F4D0-26C8-B259-5693-7EC09AF27CDA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2452,7 +2452,7 @@
           <xdr:cNvPr id="9" name="文本框 50">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15DA18C-E210-C182-5469-7EA050290AD7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C91C31-B16A-9AAC-926B-5784CB5BCF3D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2600,7 +2600,7 @@
           <xdr:cNvPr id="10" name="文本框 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0E6FBD-6896-6F8F-CA21-F15A177373E1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A91FCFD-96FD-2F8A-389A-FAFDC724FD9E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2756,7 +2756,7 @@
           <xdr:cNvPr id="11" name="文本框 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB4DE56-7792-4435-4076-33FD33D19E92}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C73FD0D-4584-C7BE-4A96-C19B5ABB9D66}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2904,7 +2904,7 @@
           <xdr:cNvPr id="12" name="文本框 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612F7263-F466-74BD-AB30-7D450138F84F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7467083A-BC07-4324-9FD7-2516B4E75AFF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3052,7 +3052,7 @@
           <xdr:cNvPr id="13" name="文本框 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784DF7B1-4D66-F564-F083-022FE7E0CCE9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B27828D-64BB-F3C8-B29A-E030007882F5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3208,7 +3208,7 @@
           <xdr:cNvPr id="14" name="文本框 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10CE5D07-7EE5-D0B0-8B67-06E5E940199C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12829160-4BC2-130F-AC67-37C1C4313017}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3356,7 +3356,7 @@
           <xdr:cNvPr id="15" name="文本框 56">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA633D4-4F20-993D-BB1E-298A94D066F7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAAF7FF7-2364-CFEF-29FD-D5F094C33D41}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3504,7 +3504,7 @@
           <xdr:cNvPr id="16" name="直接箭头连接符 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295207D0-3F10-65B3-9285-D2C8201083EF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AF29AF-AF72-A5E2-8DD5-47448F91190D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3534,7 +3534,7 @@
           <xdr:cNvPr id="17" name="文本框 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0B20D1-F8EF-84DB-3A63-B3F232EAD900}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0692F50F-050B-00D2-64C1-41311CA6AC3D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3698,7 +3698,7 @@
         <xdr:cNvPr id="18" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318C781F-AE7E-4B2F-B566-0D5B57139915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27535F8E-1F54-4DBA-9C48-AC4712CAB8D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3714,8 +3714,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1264920" y="8839200"/>
-          <a:ext cx="2670175" cy="2057400"/>
+          <a:off x="1263650" y="9055100"/>
+          <a:ext cx="2670175" cy="2108200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3736,8 +3736,8 @@
       <xdr:rowOff>74930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>16924</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>661643</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
@@ -3746,7 +3746,7 @@
         <xdr:cNvPr id="19" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48DA4F0C-9C0B-4014-B602-0E666E5CA664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8A6EA4-6519-4C3A-AC15-C2EE80F62701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3760,8 +3760,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3987165" y="8517890"/>
-          <a:ext cx="5880100" cy="3397250"/>
+          <a:off x="3985895" y="8723630"/>
+          <a:ext cx="5878830" cy="3483610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3792,7 +3792,7 @@
         <xdr:cNvPr id="20" name="文本框 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70441308-832D-4939-A6DD-5CB7674DB39B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543A127C-04A5-4F84-9B0A-EE9A38BC3FAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3800,8 +3800,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1436370" y="15688310"/>
-          <a:ext cx="5943600" cy="350520"/>
+          <a:off x="1435100" y="16076930"/>
+          <a:ext cx="5943600" cy="360680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3948,7 +3948,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>377162</xdr:colOff>
+      <xdr:colOff>393727</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>146685</xdr:rowOff>
     </xdr:to>
@@ -3957,7 +3957,7 @@
         <xdr:cNvPr id="21" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE17B36-7780-490A-A065-5CB9093DFEBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E158B9-967E-45CF-B4BC-38FA3CC98E4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3974,8 +3974,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7785735" y="1927860"/>
-          <a:ext cx="2559050" cy="2181225"/>
+          <a:off x="7783195" y="1973580"/>
+          <a:ext cx="2559050" cy="2237105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4006,7 +4006,7 @@
         <xdr:cNvPr id="22" name="图片 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765080C5-A49D-4899-A0D9-D22CEC538F9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05B90B6-BFFE-49C9-94FB-77F66B8BABAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4022,8 +4022,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2155825" y="16571595"/>
-          <a:ext cx="4178935" cy="2441575"/>
+          <a:off x="2154555" y="16985615"/>
+          <a:ext cx="4178935" cy="2502535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4054,7 +4054,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78943E64-8813-41B4-A6D6-76DF233EE633}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2128C1B-85E4-427E-B5EC-95B267A90DD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4070,8 +4070,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1583690" y="19148425"/>
-          <a:ext cx="5191125" cy="3701415"/>
+          <a:off x="1582420" y="19628485"/>
+          <a:ext cx="5191125" cy="3792855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4102,7 +4102,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983C755F-06E9-4EC2-A159-38BA7AA22618}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EE7D47-D6F6-4329-BC23-101BE27898EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4118,8 +4118,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1708785" y="597535"/>
-          <a:ext cx="3552190" cy="2283460"/>
+          <a:off x="1707515" y="607695"/>
+          <a:ext cx="3552190" cy="2344420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4141,7 +4141,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>101766</xdr:colOff>
+      <xdr:colOff>129374</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
@@ -4150,7 +4150,7 @@
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93BA39DB-AE18-431B-BF43-A5C9A1693294}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EAD3571-7487-4A9B-93A0-AB5683B07210}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4166,8 +4166,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7820025" y="4213225"/>
-          <a:ext cx="3753485" cy="3052445"/>
+          <a:off x="7817485" y="4319905"/>
+          <a:ext cx="3753485" cy="3121025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9778,7 +9778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB4AFF6-B25D-433F-A9F5-1BE7AEDD1E91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEB35EF-8473-464C-92B8-E619F2C517AF}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9788,13 +9788,13 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="84.59765625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="84.58203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -9813,463 +9813,463 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:2" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="41" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="12"/>
     </row>
-    <row r="32" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="12"/>
     </row>
-    <row r="33" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="12"/>
     </row>
-    <row r="34" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="12"/>
     </row>
-    <row r="35" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="12"/>
     </row>
-    <row r="36" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="12"/>
     </row>
-    <row r="37" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="12"/>
     </row>
-    <row r="39" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="12"/>
     </row>
-    <row r="40" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="13"/>
     </row>
-    <row r="43" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="15"/>
     </row>
-    <row r="65" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="16"/>
     </row>
-    <row r="66" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="17"/>
     </row>
-    <row r="67" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="17"/>
     </row>
-    <row r="68" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="17"/>
     </row>
-    <row r="69" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="17"/>
     </row>
-    <row r="70" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="12"/>
     </row>
-    <row r="71" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="12"/>
     </row>
-    <row r="72" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="12"/>
     </row>
-    <row r="73" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="12"/>
     </row>
-    <row r="74" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="12"/>
     </row>
-    <row r="75" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="12"/>
     </row>
-    <row r="76" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="12"/>
     </row>
-    <row r="77" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="12"/>
     </row>
-    <row r="78" spans="1:2" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
       <c r="B78" s="19"/>
     </row>
-    <row r="79" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="20"/>
     </row>
-    <row r="80" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="20"/>
     </row>
-    <row r="81" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="20"/>
     </row>
-    <row r="82" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="20"/>
     </row>
-    <row r="83" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="20"/>
     </row>
-    <row r="84" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="20"/>
     </row>
-    <row r="85" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="20"/>
     </row>
-    <row r="86" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="20"/>
     </row>
-    <row r="88" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="20"/>
     </row>
-    <row r="89" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="20"/>
     </row>
-    <row r="90" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="20"/>
     </row>
-    <row r="91" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="20"/>
     </row>
-    <row r="92" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="20"/>
     </row>
-    <row r="93" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="20"/>
     </row>
-    <row r="94" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="20"/>
     </row>
-    <row r="95" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="20"/>
     </row>
-    <row r="96" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="20"/>
     </row>
-    <row r="97" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="20"/>
     </row>
-    <row r="98" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="20"/>
     </row>
-    <row r="99" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="20"/>
     </row>
-    <row r="100" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="20"/>
     </row>
-    <row r="101" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="20"/>
     </row>
-    <row r="102" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="20"/>
     </row>
-    <row r="103" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="20"/>
     </row>
-    <row r="104" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="20"/>
     </row>
-    <row r="105" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="20"/>
     </row>
-    <row r="106" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="20"/>
     </row>
-    <row r="107" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="20"/>
     </row>
-    <row r="108" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="20"/>
     </row>
-    <row r="109" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="20"/>
     </row>
-    <row r="110" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="20"/>
     </row>
-    <row r="111" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="20"/>
     </row>
-    <row r="112" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="20"/>
     </row>
-    <row r="113" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="20"/>
     </row>
-    <row r="114" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="20"/>
     </row>
-    <row r="115" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="20"/>
     </row>
-    <row r="116" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="20"/>
     </row>
-    <row r="117" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A63"/>
@@ -10280,7 +10280,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{78FC6C39-1E49-4986-B5BD-312C6096C8C9}"/>
+    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{73831CB8-9523-4816-B201-2CC2AB74A343}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
